--- a/SchedulingData/dynamic10/pso/scheduling1_15.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_15.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>63.1</v>
+        <v>80.84</v>
       </c>
       <c r="E2" t="n">
-        <v>25.86</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.26</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>27.144</v>
+        <v>26.984</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63.1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>141</v>
+        <v>79.66</v>
       </c>
       <c r="E4" t="n">
-        <v>21.18</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55.26</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>114</v>
+        <v>108.06</v>
       </c>
       <c r="E5" t="n">
-        <v>23.88</v>
+        <v>24.464</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>95.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>26.08</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>86.2</v>
+        <v>83.7</v>
       </c>
       <c r="E7" t="n">
-        <v>25.52</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="8">
@@ -580,74 +580,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>70.40000000000001</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>25.14</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>114</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>161.5</v>
+        <v>114.22</v>
       </c>
       <c r="E9" t="n">
-        <v>20.76</v>
+        <v>23.368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>80.84</v>
       </c>
       <c r="D10" t="n">
-        <v>213.84</v>
+        <v>131.24</v>
       </c>
       <c r="E10" t="n">
-        <v>18.476</v>
+        <v>21.676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>95.59999999999999</v>
+        <v>79.66</v>
       </c>
       <c r="D11" t="n">
-        <v>171.04</v>
+        <v>142.46</v>
       </c>
       <c r="E11" t="n">
-        <v>21.656</v>
+        <v>22.064</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>86.2</v>
+        <v>83.7</v>
       </c>
       <c r="D12" t="n">
-        <v>146.4</v>
+        <v>136.3</v>
       </c>
       <c r="E12" t="n">
-        <v>21.62</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="13">
@@ -675,55 +675,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>70.40000000000001</v>
+        <v>114.22</v>
       </c>
       <c r="D13" t="n">
-        <v>119.66</v>
+        <v>194</v>
       </c>
       <c r="E13" t="n">
-        <v>21.344</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>171.04</v>
+        <v>108.06</v>
       </c>
       <c r="D14" t="n">
-        <v>222.3</v>
+        <v>152</v>
       </c>
       <c r="E14" t="n">
-        <v>19.16</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>119.66</v>
+        <v>142.46</v>
       </c>
       <c r="D15" t="n">
-        <v>176.18</v>
+        <v>222.76</v>
       </c>
       <c r="E15" t="n">
-        <v>17.312</v>
+        <v>18.144</v>
       </c>
     </row>
     <row r="16">
@@ -732,36 +732,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>131.24</v>
       </c>
       <c r="D16" t="n">
-        <v>78.7</v>
+        <v>189.48</v>
       </c>
       <c r="E16" t="n">
-        <v>26.76</v>
+        <v>18.452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>146.4</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>177</v>
+        <v>115.26</v>
       </c>
       <c r="E17" t="n">
-        <v>19.2</v>
+        <v>22.284</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>161.5</v>
+        <v>152</v>
       </c>
       <c r="D18" t="n">
-        <v>198.06</v>
+        <v>193.22</v>
       </c>
       <c r="E18" t="n">
-        <v>17.744</v>
+        <v>18.208</v>
       </c>
     </row>
     <row r="19">
@@ -789,207 +789,207 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>176.18</v>
+        <v>194</v>
       </c>
       <c r="D19" t="n">
-        <v>258.58</v>
+        <v>274.2</v>
       </c>
       <c r="E19" t="n">
-        <v>12.692</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>213.84</v>
+        <v>189.48</v>
       </c>
       <c r="D20" t="n">
-        <v>276.34</v>
+        <v>231.04</v>
       </c>
       <c r="E20" t="n">
-        <v>13.856</v>
+        <v>15.436</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>276.34</v>
+        <v>231.04</v>
       </c>
       <c r="D21" t="n">
-        <v>308.74</v>
+        <v>269.94</v>
       </c>
       <c r="E21" t="n">
-        <v>11.256</v>
+        <v>12.676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>198.06</v>
+        <v>269.94</v>
       </c>
       <c r="D22" t="n">
-        <v>266.46</v>
+        <v>327.88</v>
       </c>
       <c r="E22" t="n">
-        <v>14.984</v>
+        <v>9.972</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>78.7</v>
+        <v>136.3</v>
       </c>
       <c r="D23" t="n">
-        <v>173.28</v>
+        <v>197.4</v>
       </c>
       <c r="E23" t="n">
-        <v>23.372</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>173.28</v>
+        <v>222.76</v>
       </c>
       <c r="D24" t="n">
-        <v>239.18</v>
+        <v>268.82</v>
       </c>
       <c r="E24" t="n">
-        <v>20.852</v>
+        <v>15.648</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>177</v>
+        <v>115.26</v>
       </c>
       <c r="D25" t="n">
-        <v>238.22</v>
+        <v>177.66</v>
       </c>
       <c r="E25" t="n">
-        <v>16.208</v>
+        <v>17.664</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>222.3</v>
+        <v>274.2</v>
       </c>
       <c r="D26" t="n">
-        <v>295.64</v>
+        <v>319.52</v>
       </c>
       <c r="E26" t="n">
-        <v>15.936</v>
+        <v>14.648</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>266.46</v>
+        <v>197.4</v>
       </c>
       <c r="D27" t="n">
-        <v>307.92</v>
+        <v>285</v>
       </c>
       <c r="E27" t="n">
-        <v>11.968</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>238.22</v>
+        <v>177.66</v>
       </c>
       <c r="D28" t="n">
-        <v>304.58</v>
+        <v>225.06</v>
       </c>
       <c r="E28" t="n">
-        <v>13.192</v>
+        <v>14.544</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>239.18</v>
+        <v>193.22</v>
       </c>
       <c r="D29" t="n">
-        <v>324.2</v>
+        <v>247.68</v>
       </c>
       <c r="E29" t="n">
-        <v>17.94</v>
+        <v>15.392</v>
       </c>
     </row>
     <row r="30">
@@ -1002,32 +1002,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>295.64</v>
+        <v>225.06</v>
       </c>
       <c r="D30" t="n">
-        <v>344.4</v>
+        <v>283.52</v>
       </c>
       <c r="E30" t="n">
-        <v>13.18</v>
+        <v>11.788</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>304.58</v>
+        <v>283.52</v>
       </c>
       <c r="D31" t="n">
-        <v>353.84</v>
+        <v>339.98</v>
       </c>
       <c r="E31" t="n">
-        <v>10.376</v>
+        <v>8.772</v>
       </c>
     </row>
   </sheetData>
